--- a/server-res/excel/Cfg_Achievement.xlsx
+++ b/server-res/excel/Cfg_Achievement.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="flag">Sheet1!$N$19+Sheet2!$A$1:$A$11</definedName>
+    <definedName name="flag">Sheet1!$N$18+Sheet2!$A$1:$A$11</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -24,7 +24,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,10 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
-  <si>
-    <t>uint32</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>idmap</t>
   </si>
@@ -81,9 +78,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>sort</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
   </si>
   <si>
     <t>award_list</t>
-  </si>
-  <si>
-    <t>AwardData</t>
   </si>
   <si>
     <t>奖励</t>
@@ -241,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,6 +294,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -350,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +379,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,10 +589,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,148 +612,148 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -768,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -783,84 +777,84 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
         <v>42</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -868,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
       <c r="E7">
         <v>0</v>
       </c>
@@ -900,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -915,24 +909,24 @@
         <v>10000</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -944,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>10000</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -959,24 +953,24 @@
         <v>10000</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -988,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1003,54 +997,10 @@
         <v>10000</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10">
-        <v>1000000</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>10000</v>
-      </c>
-      <c r="M10">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/server-res/excel/Cfg_Achievement.xlsx
+++ b/server-res/excel/Cfg_Achievement.xlsx
@@ -72,9 +72,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
-    <t>idmap</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -226,6 +223,10 @@
   </si>
   <si>
     <t>[{"type":"4","num":"100",desc="绑定元宝100"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +593,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,87 +613,87 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
       <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -703,11 +704,11 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -718,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -736,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -747,10 +748,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -762,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>20</v>
@@ -780,7 +781,7 @@
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -791,10 +792,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -806,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -824,7 +825,7 @@
         <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -835,10 +836,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -850,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -868,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -879,10 +880,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -894,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -912,7 +913,7 @@
         <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -923,11 +924,11 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
@@ -938,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8">
         <v>10000</v>
@@ -956,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -967,10 +968,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -982,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9">
         <v>1000000</v>
@@ -1000,7 +1001,7 @@
         <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
